--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBCC23A-6FEC-4B3A-95F3-E49268C9EB11}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97876492-06F5-4553-93F2-A5BED393DD76}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,9 +479,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,15 +507,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -555,6 +543,18 @@
     <xf numFmtId="37" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="2.625" customWidth="1"/>
     <col min="12" max="12" width="2.625" customWidth="1"/>
     <col min="14" max="14" width="1.375" customWidth="1"/>
@@ -1066,82 +1066,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1152,23 +1152,23 @@
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>6500</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="21">
+      <c r="D4" s="18"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="17">
         <v>6500</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1177,23 +1177,23 @@
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="24">
         <v>-3000</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="28">
+      <c r="D5" s="18"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="24">
         <v>3000</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1202,23 +1202,23 @@
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="24">
         <v>1000</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="28">
+      <c r="D6" s="18"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="24">
         <v>1000</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="28"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1227,21 +1227,21 @@
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="28">
+      <c r="C7" s="24"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="24">
         <v>700</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28">
+      <c r="H7" s="19"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="24">
         <v>700</v>
       </c>
     </row>
@@ -1252,21 +1252,21 @@
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="24">
         <v>-200</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="28">
+      <c r="D8" s="18"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="24">
         <v>200</v>
       </c>
     </row>
@@ -1277,23 +1277,23 @@
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="24">
         <v>-500</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="28">
+      <c r="D9" s="18"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="24">
         <v>-500</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
     </row>
     <row r="10" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1302,23 +1302,23 @@
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="28">
+      <c r="C10" s="24"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="24">
         <v>3000</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="28">
+      <c r="F10" s="19"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="24">
         <v>3000</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="24"/>
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1327,23 +1327,23 @@
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="25">
         <v>1500</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="29">
+      <c r="D11" s="18"/>
+      <c r="E11" s="25">
         <v>-1500</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="29"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1352,37 +1352,37 @@
       <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="25">
         <f>SUM(C4:C11)</f>
         <v>5300</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="29">
+      <c r="D12" s="18"/>
+      <c r="E12" s="25">
         <f>SUM(E4:E11)</f>
         <v>1500</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="29">
+      <c r="F12" s="19"/>
+      <c r="G12" s="25">
         <f>SUM(G4:G11)</f>
         <v>200</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="29">
+      <c r="H12" s="19"/>
+      <c r="I12" s="25">
         <f>SUM(I4:I11)</f>
         <v>6500</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="29">
+      <c r="J12" s="20"/>
+      <c r="K12" s="25">
         <f>SUM(K4:K11)</f>
         <v>4000</v>
       </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="29">
+      <c r="L12" s="21"/>
+      <c r="M12" s="25">
         <f>SUM(M4:M11)</f>
         <v>3000</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="29">
+      <c r="N12" s="23"/>
+      <c r="O12" s="25">
         <f>SUM(O4:O11)</f>
         <v>900</v>
       </c>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97876492-06F5-4553-93F2-A5BED393DD76}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424896C1-DEAD-485A-A697-62A90836B1CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,7 +1057,7 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="2.625" customWidth="1"/>
     <col min="12" max="12" width="2.625" customWidth="1"/>
     <col min="14" max="14" width="1.375" customWidth="1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424896C1-DEAD-485A-A697-62A90836B1CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9711C2C5-43FD-4779-BD3B-20E16C1ED2CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>Issue stock for cash, $6,500</t>
   </si>
   <si>
-    <t>Sold memberships to customers for cash, $1,000</t>
-  </si>
-  <si>
     <t>Purchased supplies for cash, $200</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Ending balances before closing</t>
+  </si>
+  <si>
+    <t>Sold memberships for cash, $1,000</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1175,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="24">
         <v>-3000</v>
@@ -1200,7 +1200,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C6" s="24">
         <v>1000</v>
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="18"/>
@@ -1250,7 +1250,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="24">
         <v>-200</v>
@@ -1275,7 +1275,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="24">
         <v>-500</v>
@@ -1300,7 +1300,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="18"/>
@@ -1325,7 +1325,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="25">
         <v>1500</v>
@@ -1350,7 +1350,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="25">
         <f>SUM(C4:C11)</f>
@@ -1388,7 +1388,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="M2:O2"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/1.5_TYU_Final.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9711C2C5-43FD-4779-BD3B-20E16C1ED2CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD4E55E-0064-47DE-8C86-7307FEFB5893}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Assets</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>8.</t>
-  </si>
-  <si>
-    <t>9.</t>
   </si>
   <si>
     <t>Issue stock for cash, $6,500</t>
@@ -221,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -320,6 +317,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -465,7 +473,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -555,6 +563,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1150,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="17">
         <v>6500</v>
@@ -1175,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="24">
         <v>-3000</v>
@@ -1200,7 +1212,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="24">
         <v>1000</v>
@@ -1225,7 +1237,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="18"/>
@@ -1250,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="24">
         <v>-200</v>
@@ -1275,7 +1287,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="24">
         <v>-500</v>
@@ -1300,7 +1312,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="18"/>
@@ -1325,7 +1337,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="25">
         <v>1500</v>
@@ -1346,43 +1358,41 @@
       <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="25">
+        <v>29</v>
+      </c>
+      <c r="C12" s="30">
         <f>SUM(C4:C11)</f>
         <v>5300</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="25">
+      <c r="E12" s="30">
         <f>SUM(E4:E11)</f>
         <v>1500</v>
       </c>
       <c r="F12" s="19"/>
-      <c r="G12" s="25">
+      <c r="G12" s="30">
         <f>SUM(G4:G11)</f>
         <v>200</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="25">
+      <c r="I12" s="30">
         <f>SUM(I4:I11)</f>
         <v>6500</v>
       </c>
       <c r="J12" s="20"/>
-      <c r="K12" s="25">
+      <c r="K12" s="30">
         <f>SUM(K4:K11)</f>
         <v>4000</v>
       </c>
       <c r="L12" s="21"/>
-      <c r="M12" s="25">
+      <c r="M12" s="30">
         <f>SUM(M4:M11)</f>
         <v>3000</v>
       </c>
       <c r="N12" s="23"/>
-      <c r="O12" s="25">
+      <c r="O12" s="30">
         <f>SUM(O4:O11)</f>
         <v>900</v>
       </c>
